--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144F2183-6794-4538-874A-2860D7370043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1694C4AC-110C-46D7-8BF4-EEACAF60A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Keyword</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Enter Text to delete Grant Category Profile</t>
+  </si>
+  <si>
+    <t>Enter Text to delete GAAP source object profile</t>
   </si>
 </sst>
 </file>
@@ -766,7 +769,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -965,9 +968,15 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1694C4AC-110C-46D7-8BF4-EEACAF60A664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA4CA4-3280-43CD-A635-97E580596715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -884,7 +884,7 @@
         <v>31</v>
       </c>
       <c r="C8" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_DeleteProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAA4CA4-3280-43CD-A635-97E580596715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D79131F-D2DD-402C-8AA9-75368E86AAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
+    <workbookView xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{27A31DFA-24AF-4BE1-9FF9-9403A37291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Keyword</t>
   </si>
@@ -769,7 +769,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,8 +870,8 @@
       <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
+      <c r="C7" s="4">
+        <v>12</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
